--- a/Assets/Resources/Form/Item.xlsx
+++ b/Assets/Resources/Form/Item.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBEB6FE-C49E-4A53-B663-1B06CE179DC4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4772B0C-74D7-40BB-9E0D-972CAB99ABCB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6450" yWindow="2325" windowWidth="19575" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -47,6 +35,10 @@
   </si>
   <si>
     <t>剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,68 +364,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Form/Item.xlsx
+++ b/Assets/Resources/Form/Item.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4772B0C-74D7-40BB-9E0D-972CAB99ABCB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAB0731-5712-432F-A857-CAC3397871B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="2325" windowWidth="19575" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,34 @@
   </si>
   <si>
     <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,43 +392,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
     </row>

--- a/Assets/Resources/Form/Item.xlsx
+++ b/Assets/Resources/Form/Item.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAB0731-5712-432F-A857-CAC3397871B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB393521-7EF7-4CCF-85BD-26207E7869EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,10 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>棒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +64,9 @@
   <si>
     <t>攻击速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knife</t>
   </si>
 </sst>
 </file>
@@ -395,29 +394,29 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -425,10 +424,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -445,10 +444,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -465,10 +464,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>30</v>
